--- a/Outputval_Synchronize/Default.xlsx
+++ b/Outputval_Synchronize/Default.xlsx
@@ -206,10 +206,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -514,15 +514,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.67578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.67578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -537,24 +537,24 @@
       </c>
     </row>
     <row>
-      <c s="2">
+      <c s="1">
         <v>2</v>
       </c>
-      <c s="2"/>
+      <c s="1"/>
       <c s="3"/>
     </row>
     <row>
-      <c s="2">
+      <c s="1">
         <v>3</v>
       </c>
-      <c s="2"/>
+      <c s="1"/>
       <c s="3"/>
     </row>
     <row>
-      <c s="2">
+      <c s="1">
         <v>4</v>
       </c>
-      <c s="2"/>
+      <c s="1"/>
       <c s="3"/>
     </row>
   </sheetData>
@@ -572,7 +572,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
